--- a/epeak.xlsx
+++ b/epeak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>bnname</t>
   </si>
@@ -34,7 +34,13 @@
     <t>end time</t>
   </si>
   <si>
+    <t>bin=0.064</t>
+  </si>
+  <si>
     <t>bn090809978</t>
+  </si>
+  <si>
+    <t>bin=0.07</t>
   </si>
 </sst>
 </file>
@@ -42,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -79,75 +85,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -156,17 +93,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,10 +163,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,16 +177,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,19 +223,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,67 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,96 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -427,6 +433,43 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -435,41 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,7 +506,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,152 +571,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,6 +727,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1008,20 +1060,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625"/>
-    <col min="5" max="6" width="10.375"/>
+    <col min="2" max="5" width="12.625"/>
+    <col min="6" max="6" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,11 +1091,14 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>344.234816510444</v>
@@ -1054,16 +1109,16 @@
       <c r="D2" s="3">
         <v>356.175646367385</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>0.925552</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>1.825552</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>108.826361107566</v>
@@ -1074,16 +1129,16 @@
       <c r="D3" s="3">
         <v>152.122351563782</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>1.825552</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>5.375552</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>86.6412147147715</v>
@@ -1094,16 +1149,16 @@
       <c r="D4" s="3">
         <v>142.453330181571</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>5.375552</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>7.825552</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>77.4409915677724</v>
@@ -1114,16 +1169,16 @@
       <c r="D5" s="3">
         <v>243.271606283309</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>7.825552</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>10.275552</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>12.6461418587867</v>
@@ -1134,10 +1189,134 @@
       <c r="D6" s="3">
         <v>754.11420841061</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>10.275552</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
+        <v>14.475552</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5"/>
+    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>346.299091493786</v>
+      </c>
+      <c r="C9" s="4">
+        <v>178.893491770683</v>
+      </c>
+      <c r="D9" s="4">
+        <v>601.147208378661</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.925552</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.825552</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>108.396495940785</v>
+      </c>
+      <c r="C10" s="6">
+        <v>78.3711734893238</v>
+      </c>
+      <c r="D10" s="6">
+        <v>151.799309076429</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.825552</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5.375552</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>82.9407164132129</v>
+      </c>
+      <c r="C11" s="6">
+        <v>49.5677342092368</v>
+      </c>
+      <c r="D11" s="6">
+        <v>136.392584384436</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5.375552</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7.825552</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>79.9554681326462</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10.8352301995717</v>
+      </c>
+      <c r="D12" s="6">
+        <v>249.541249545937</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.825552</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10.275552</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10.0205275335804</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>544.4069326741</v>
+      </c>
+      <c r="E13" s="7">
+        <v>10.275552</v>
+      </c>
+      <c r="F13" s="7">
         <v>14.475552</v>
       </c>
     </row>

--- a/epeak.xlsx
+++ b/epeak.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>bnname</t>
   </si>
@@ -34,13 +34,10 @@
     <t>end time</t>
   </si>
   <si>
-    <t>bin=0.064</t>
+    <t>bin=0.07</t>
   </si>
   <si>
     <t>bn090809978</t>
-  </si>
-  <si>
-    <t>bin=0.07</t>
   </si>
 </sst>
 </file>
@@ -48,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -92,6 +89,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -99,16 +104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,23 +130,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,9 +145,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,23 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,29 +206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,181 +220,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,25 +485,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +514,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -552,17 +540,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,127 +568,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,16 +697,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1063,7 +1060,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1217,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:6">
